--- a/カード当てゲーム(拡張)/00_プロジェクト管理/09_反復計画書 (1) (1).xlsx
+++ b/カード当てゲーム(拡張)/00_プロジェクト管理/09_反復計画書 (1) (1).xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22926"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23007"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{060AD65F-5AB1-40FC-B213-5E4CF5C7128F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A2019FBD-BC74-4F1B-B46F-95E328AA4EF1}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{060AD65F-5AB1-40FC-B213-5E4CF5C7128F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FBEB4F38-D6A7-4D1B-9982-7D0790544413}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="テンプレート" sheetId="4" r:id="rId1"/>
     <sheet name="反復計画書" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
   <si>
     <t>プロジェクト全体のゴール</t>
     <rPh sb="6" eb="8">
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>3日間</t>
+  </si>
+  <si>
+    <t>2.5日間</t>
   </si>
   <si>
     <t>人間プレイヤーで対戦できる
@@ -735,7 +738,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1240,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1316,7 +1319,7 @@
         <v>43990</v>
       </c>
       <c r="E6" s="32">
-        <v>43992</v>
+        <v>43993</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1346,7 +1349,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="76.5" customHeight="1">
@@ -1355,13 +1358,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="147" customHeight="1">
@@ -1370,13 +1373,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1422,7 +1425,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>16</v>
@@ -1435,10 +1438,10 @@
         <v>9</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" s="15"/>
     </row>
@@ -1464,12 +1467,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1657,42 +1657,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E46B08CD-6155-498A-B09B-2C1455E94364}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E46B08CD-6155-498A-B09B-2C1455E94364}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}"/>
 </file>